--- a/scripts/coinbase_close.xlsx
+++ b/scripts/coinbase_close.xlsx
@@ -500,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AO2276"/>
+  <dimension ref="A1:AO2281"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -68760,124 +68760,749 @@
         <v>44479</v>
       </c>
       <c r="B2276">
-        <v>55264.59</v>
+        <v>54690.53</v>
       </c>
       <c r="C2276">
-        <v>55270.18</v>
+        <v>54690.53</v>
       </c>
       <c r="D2276">
-        <v>55277.5</v>
+        <v>54690.53</v>
       </c>
       <c r="E2276">
-        <v>55277.5</v>
+        <v>54690.53</v>
       </c>
       <c r="F2276">
-        <v>55270.87</v>
+        <v>54690.53</v>
       </c>
       <c r="G2276">
-        <v>55267.31</v>
+        <v>54690.53</v>
       </c>
       <c r="H2276">
-        <v>55280.08</v>
+        <v>54690.53</v>
       </c>
       <c r="I2276">
-        <v>55268.57</v>
+        <v>54690.53</v>
       </c>
       <c r="J2276">
-        <v>55276.14</v>
+        <v>54690.53</v>
       </c>
       <c r="K2276">
-        <v>55276.14</v>
+        <v>54690.53</v>
       </c>
       <c r="L2276">
-        <v>55270.43</v>
+        <v>54690.53</v>
       </c>
       <c r="M2276">
-        <v>55269.29</v>
+        <v>54690.53</v>
       </c>
       <c r="N2276">
-        <v>55274.06</v>
+        <v>54690.53</v>
       </c>
       <c r="O2276">
-        <v>55260.27</v>
+        <v>54690.53</v>
       </c>
       <c r="P2276">
-        <v>55260.27</v>
+        <v>54690.53</v>
       </c>
       <c r="Q2276">
-        <v>55253.97</v>
+        <v>54690.53</v>
       </c>
       <c r="R2276">
-        <v>55253.97</v>
+        <v>54690.53</v>
       </c>
       <c r="S2276">
-        <v>55267.7</v>
+        <v>54690.53</v>
       </c>
       <c r="T2276">
-        <v>55268.15</v>
+        <v>54690.53</v>
       </c>
       <c r="U2276">
-        <v>55268.15</v>
+        <v>54690.53</v>
       </c>
       <c r="V2276">
-        <v>55272.9</v>
+        <v>54690.53</v>
       </c>
       <c r="W2276">
-        <v>55270.67</v>
+        <v>54690.53</v>
       </c>
       <c r="X2276">
-        <v>55273.24</v>
+        <v>54690.53</v>
       </c>
       <c r="Y2276">
-        <v>55273.24</v>
+        <v>54690.53</v>
       </c>
       <c r="Z2276">
-        <v>55274.46</v>
+        <v>54690.53</v>
       </c>
       <c r="AA2276">
-        <v>55274.46</v>
+        <v>54690.53</v>
       </c>
       <c r="AB2276">
-        <v>55268.51</v>
+        <v>54690.53</v>
       </c>
       <c r="AC2276">
-        <v>55264.56</v>
+        <v>54690.53</v>
       </c>
       <c r="AD2276">
-        <v>55268.59</v>
+        <v>54690.53</v>
       </c>
       <c r="AE2276">
-        <v>55277.85</v>
+        <v>54690.53</v>
       </c>
       <c r="AF2276">
-        <v>55285.04</v>
+        <v>54690.53</v>
       </c>
       <c r="AG2276">
-        <v>55296.21</v>
+        <v>54690.53</v>
       </c>
       <c r="AH2276">
-        <v>55296.21</v>
+        <v>54690.53</v>
       </c>
       <c r="AI2276">
-        <v>55290.11</v>
+        <v>54690.53</v>
       </c>
       <c r="AJ2276">
-        <v>55282.23</v>
+        <v>54690.53</v>
       </c>
       <c r="AK2276">
-        <v>55282.23</v>
+        <v>54690.53</v>
       </c>
       <c r="AL2276">
-        <v>55284.18</v>
+        <v>54690.53</v>
       </c>
       <c r="AM2276">
-        <v>55284.49</v>
+        <v>54690.53</v>
       </c>
       <c r="AN2276">
-        <v>55289.73</v>
+        <v>54690.53</v>
       </c>
       <c r="AO2276">
-        <v>55289.73</v>
+        <v>54690.53</v>
+      </c>
+    </row>
+    <row r="2277" spans="1:41">
+      <c r="A2277" s="2">
+        <v>44480</v>
+      </c>
+      <c r="B2277">
+        <v>57487.44</v>
+      </c>
+      <c r="C2277">
+        <v>57487.44</v>
+      </c>
+      <c r="D2277">
+        <v>57487.44</v>
+      </c>
+      <c r="E2277">
+        <v>57487.44</v>
+      </c>
+      <c r="F2277">
+        <v>57487.44</v>
+      </c>
+      <c r="G2277">
+        <v>57487.44</v>
+      </c>
+      <c r="H2277">
+        <v>57487.44</v>
+      </c>
+      <c r="I2277">
+        <v>57487.44</v>
+      </c>
+      <c r="J2277">
+        <v>57487.44</v>
+      </c>
+      <c r="K2277">
+        <v>57487.44</v>
+      </c>
+      <c r="L2277">
+        <v>57487.44</v>
+      </c>
+      <c r="M2277">
+        <v>57487.44</v>
+      </c>
+      <c r="N2277">
+        <v>57487.44</v>
+      </c>
+      <c r="O2277">
+        <v>57487.44</v>
+      </c>
+      <c r="P2277">
+        <v>57487.44</v>
+      </c>
+      <c r="Q2277">
+        <v>57487.44</v>
+      </c>
+      <c r="R2277">
+        <v>57487.44</v>
+      </c>
+      <c r="S2277">
+        <v>57487.44</v>
+      </c>
+      <c r="T2277">
+        <v>57487.44</v>
+      </c>
+      <c r="U2277">
+        <v>57487.44</v>
+      </c>
+      <c r="V2277">
+        <v>57487.44</v>
+      </c>
+      <c r="W2277">
+        <v>57487.44</v>
+      </c>
+      <c r="X2277">
+        <v>57487.44</v>
+      </c>
+      <c r="Y2277">
+        <v>57487.44</v>
+      </c>
+      <c r="Z2277">
+        <v>57487.44</v>
+      </c>
+      <c r="AA2277">
+        <v>57487.44</v>
+      </c>
+      <c r="AB2277">
+        <v>57487.44</v>
+      </c>
+      <c r="AC2277">
+        <v>57487.44</v>
+      </c>
+      <c r="AD2277">
+        <v>57487.44</v>
+      </c>
+      <c r="AE2277">
+        <v>57487.44</v>
+      </c>
+      <c r="AF2277">
+        <v>57487.44</v>
+      </c>
+      <c r="AG2277">
+        <v>57487.44</v>
+      </c>
+      <c r="AH2277">
+        <v>57487.44</v>
+      </c>
+      <c r="AI2277">
+        <v>57487.44</v>
+      </c>
+      <c r="AJ2277">
+        <v>57487.44</v>
+      </c>
+      <c r="AK2277">
+        <v>57487.44</v>
+      </c>
+      <c r="AL2277">
+        <v>57487.44</v>
+      </c>
+      <c r="AM2277">
+        <v>57487.44</v>
+      </c>
+      <c r="AN2277">
+        <v>57487.44</v>
+      </c>
+      <c r="AO2277">
+        <v>57487.44</v>
+      </c>
+    </row>
+    <row r="2278" spans="1:41">
+      <c r="A2278" s="2">
+        <v>44481</v>
+      </c>
+      <c r="B2278">
+        <v>56005.1</v>
+      </c>
+      <c r="C2278">
+        <v>56005.1</v>
+      </c>
+      <c r="D2278">
+        <v>56005.1</v>
+      </c>
+      <c r="E2278">
+        <v>56005.1</v>
+      </c>
+      <c r="F2278">
+        <v>56005.1</v>
+      </c>
+      <c r="G2278">
+        <v>56005.1</v>
+      </c>
+      <c r="H2278">
+        <v>56005.1</v>
+      </c>
+      <c r="I2278">
+        <v>56005.1</v>
+      </c>
+      <c r="J2278">
+        <v>56005.1</v>
+      </c>
+      <c r="K2278">
+        <v>56005.1</v>
+      </c>
+      <c r="L2278">
+        <v>56005.1</v>
+      </c>
+      <c r="M2278">
+        <v>56005.1</v>
+      </c>
+      <c r="N2278">
+        <v>56005.1</v>
+      </c>
+      <c r="O2278">
+        <v>56005.1</v>
+      </c>
+      <c r="P2278">
+        <v>56005.1</v>
+      </c>
+      <c r="Q2278">
+        <v>56005.1</v>
+      </c>
+      <c r="R2278">
+        <v>56005.1</v>
+      </c>
+      <c r="S2278">
+        <v>56005.1</v>
+      </c>
+      <c r="T2278">
+        <v>56005.1</v>
+      </c>
+      <c r="U2278">
+        <v>56005.1</v>
+      </c>
+      <c r="V2278">
+        <v>56005.1</v>
+      </c>
+      <c r="W2278">
+        <v>56005.1</v>
+      </c>
+      <c r="X2278">
+        <v>56005.1</v>
+      </c>
+      <c r="Y2278">
+        <v>56005.1</v>
+      </c>
+      <c r="Z2278">
+        <v>56005.1</v>
+      </c>
+      <c r="AA2278">
+        <v>56005.1</v>
+      </c>
+      <c r="AB2278">
+        <v>56005.1</v>
+      </c>
+      <c r="AC2278">
+        <v>56005.1</v>
+      </c>
+      <c r="AD2278">
+        <v>56005.1</v>
+      </c>
+      <c r="AE2278">
+        <v>56005.1</v>
+      </c>
+      <c r="AF2278">
+        <v>56005.1</v>
+      </c>
+      <c r="AG2278">
+        <v>56005.1</v>
+      </c>
+      <c r="AH2278">
+        <v>56005.1</v>
+      </c>
+      <c r="AI2278">
+        <v>56005.1</v>
+      </c>
+      <c r="AJ2278">
+        <v>56005.1</v>
+      </c>
+      <c r="AK2278">
+        <v>56005.1</v>
+      </c>
+      <c r="AL2278">
+        <v>56005.1</v>
+      </c>
+      <c r="AM2278">
+        <v>56005.1</v>
+      </c>
+      <c r="AN2278">
+        <v>56005.1</v>
+      </c>
+      <c r="AO2278">
+        <v>56005.1</v>
+      </c>
+    </row>
+    <row r="2279" spans="1:41">
+      <c r="A2279" s="2">
+        <v>44482</v>
+      </c>
+      <c r="B2279">
+        <v>57367.32</v>
+      </c>
+      <c r="C2279">
+        <v>57367.32</v>
+      </c>
+      <c r="D2279">
+        <v>57367.32</v>
+      </c>
+      <c r="E2279">
+        <v>57367.32</v>
+      </c>
+      <c r="F2279">
+        <v>57367.32</v>
+      </c>
+      <c r="G2279">
+        <v>57367.32</v>
+      </c>
+      <c r="H2279">
+        <v>57367.32</v>
+      </c>
+      <c r="I2279">
+        <v>57367.32</v>
+      </c>
+      <c r="J2279">
+        <v>57367.32</v>
+      </c>
+      <c r="K2279">
+        <v>57367.32</v>
+      </c>
+      <c r="L2279">
+        <v>57367.32</v>
+      </c>
+      <c r="M2279">
+        <v>57367.32</v>
+      </c>
+      <c r="N2279">
+        <v>57367.32</v>
+      </c>
+      <c r="O2279">
+        <v>57367.32</v>
+      </c>
+      <c r="P2279">
+        <v>57367.32</v>
+      </c>
+      <c r="Q2279">
+        <v>57367.32</v>
+      </c>
+      <c r="R2279">
+        <v>57367.32</v>
+      </c>
+      <c r="S2279">
+        <v>57367.32</v>
+      </c>
+      <c r="T2279">
+        <v>57367.32</v>
+      </c>
+      <c r="U2279">
+        <v>57367.32</v>
+      </c>
+      <c r="V2279">
+        <v>57367.32</v>
+      </c>
+      <c r="W2279">
+        <v>57367.32</v>
+      </c>
+      <c r="X2279">
+        <v>57367.32</v>
+      </c>
+      <c r="Y2279">
+        <v>57367.32</v>
+      </c>
+      <c r="Z2279">
+        <v>57367.32</v>
+      </c>
+      <c r="AA2279">
+        <v>57367.32</v>
+      </c>
+      <c r="AB2279">
+        <v>57367.32</v>
+      </c>
+      <c r="AC2279">
+        <v>57367.32</v>
+      </c>
+      <c r="AD2279">
+        <v>57367.32</v>
+      </c>
+      <c r="AE2279">
+        <v>57367.32</v>
+      </c>
+      <c r="AF2279">
+        <v>57367.32</v>
+      </c>
+      <c r="AG2279">
+        <v>57367.32</v>
+      </c>
+      <c r="AH2279">
+        <v>57367.32</v>
+      </c>
+      <c r="AI2279">
+        <v>57367.32</v>
+      </c>
+      <c r="AJ2279">
+        <v>57367.32</v>
+      </c>
+      <c r="AK2279">
+        <v>57367.32</v>
+      </c>
+      <c r="AL2279">
+        <v>57367.32</v>
+      </c>
+      <c r="AM2279">
+        <v>57367.32</v>
+      </c>
+      <c r="AN2279">
+        <v>57367.32</v>
+      </c>
+      <c r="AO2279">
+        <v>57367.32</v>
+      </c>
+    </row>
+    <row r="2280" spans="1:41">
+      <c r="A2280" s="2">
+        <v>44483</v>
+      </c>
+      <c r="B2280">
+        <v>57359.51</v>
+      </c>
+      <c r="C2280">
+        <v>57359.51</v>
+      </c>
+      <c r="D2280">
+        <v>57359.51</v>
+      </c>
+      <c r="E2280">
+        <v>57359.51</v>
+      </c>
+      <c r="F2280">
+        <v>57359.51</v>
+      </c>
+      <c r="G2280">
+        <v>57359.51</v>
+      </c>
+      <c r="H2280">
+        <v>57359.51</v>
+      </c>
+      <c r="I2280">
+        <v>57359.51</v>
+      </c>
+      <c r="J2280">
+        <v>57359.51</v>
+      </c>
+      <c r="K2280">
+        <v>57359.51</v>
+      </c>
+      <c r="L2280">
+        <v>57359.51</v>
+      </c>
+      <c r="M2280">
+        <v>57359.51</v>
+      </c>
+      <c r="N2280">
+        <v>57359.51</v>
+      </c>
+      <c r="O2280">
+        <v>57359.51</v>
+      </c>
+      <c r="P2280">
+        <v>57359.51</v>
+      </c>
+      <c r="Q2280">
+        <v>57359.51</v>
+      </c>
+      <c r="R2280">
+        <v>57359.51</v>
+      </c>
+      <c r="S2280">
+        <v>57359.51</v>
+      </c>
+      <c r="T2280">
+        <v>57359.51</v>
+      </c>
+      <c r="U2280">
+        <v>57359.51</v>
+      </c>
+      <c r="V2280">
+        <v>57359.51</v>
+      </c>
+      <c r="W2280">
+        <v>57359.51</v>
+      </c>
+      <c r="X2280">
+        <v>57359.51</v>
+      </c>
+      <c r="Y2280">
+        <v>57359.51</v>
+      </c>
+      <c r="Z2280">
+        <v>57359.51</v>
+      </c>
+      <c r="AA2280">
+        <v>57359.51</v>
+      </c>
+      <c r="AB2280">
+        <v>57359.51</v>
+      </c>
+      <c r="AC2280">
+        <v>57359.51</v>
+      </c>
+      <c r="AD2280">
+        <v>57359.51</v>
+      </c>
+      <c r="AE2280">
+        <v>57359.51</v>
+      </c>
+      <c r="AF2280">
+        <v>57359.51</v>
+      </c>
+      <c r="AG2280">
+        <v>57359.51</v>
+      </c>
+      <c r="AH2280">
+        <v>57359.51</v>
+      </c>
+      <c r="AI2280">
+        <v>57359.51</v>
+      </c>
+      <c r="AJ2280">
+        <v>57359.51</v>
+      </c>
+      <c r="AK2280">
+        <v>57359.51</v>
+      </c>
+      <c r="AL2280">
+        <v>57359.51</v>
+      </c>
+      <c r="AM2280">
+        <v>57359.51</v>
+      </c>
+      <c r="AN2280">
+        <v>57359.51</v>
+      </c>
+      <c r="AO2280">
+        <v>57359.51</v>
+      </c>
+    </row>
+    <row r="2281" spans="1:41">
+      <c r="A2281" s="2">
+        <v>44484</v>
+      </c>
+      <c r="B2281">
+        <v>59467.31</v>
+      </c>
+      <c r="C2281">
+        <v>59464.21</v>
+      </c>
+      <c r="D2281">
+        <v>59464.21</v>
+      </c>
+      <c r="E2281">
+        <v>59444.67</v>
+      </c>
+      <c r="F2281">
+        <v>59443.65</v>
+      </c>
+      <c r="G2281">
+        <v>59443.65</v>
+      </c>
+      <c r="H2281">
+        <v>59436.97</v>
+      </c>
+      <c r="I2281">
+        <v>59436.97</v>
+      </c>
+      <c r="J2281">
+        <v>59434.79</v>
+      </c>
+      <c r="K2281">
+        <v>59429.68</v>
+      </c>
+      <c r="L2281">
+        <v>59430.63</v>
+      </c>
+      <c r="M2281">
+        <v>59430.63</v>
+      </c>
+      <c r="N2281">
+        <v>59448.44</v>
+      </c>
+      <c r="O2281">
+        <v>59458.84</v>
+      </c>
+      <c r="P2281">
+        <v>59458.84</v>
+      </c>
+      <c r="Q2281">
+        <v>59462.81</v>
+      </c>
+      <c r="R2281">
+        <v>59441.2</v>
+      </c>
+      <c r="S2281">
+        <v>59421.43</v>
+      </c>
+      <c r="T2281">
+        <v>59421.43</v>
+      </c>
+      <c r="U2281">
+        <v>59448.99</v>
+      </c>
+      <c r="V2281">
+        <v>59448.99</v>
+      </c>
+      <c r="W2281">
+        <v>59470.64</v>
+      </c>
+      <c r="X2281">
+        <v>59477.44</v>
+      </c>
+      <c r="Y2281">
+        <v>59471.34</v>
+      </c>
+      <c r="Z2281">
+        <v>59465.49</v>
+      </c>
+      <c r="AA2281">
+        <v>59465.49</v>
+      </c>
+      <c r="AB2281">
+        <v>59470.45</v>
+      </c>
+      <c r="AC2281">
+        <v>59469.66</v>
+      </c>
+      <c r="AD2281">
+        <v>59469.66</v>
+      </c>
+      <c r="AE2281">
+        <v>59449.01</v>
+      </c>
+      <c r="AF2281">
+        <v>59437.94</v>
+      </c>
+      <c r="AG2281">
+        <v>59437.94</v>
+      </c>
+      <c r="AH2281">
+        <v>59449.62</v>
+      </c>
+      <c r="AI2281">
+        <v>59435.98</v>
+      </c>
+      <c r="AJ2281">
+        <v>59435.98</v>
+      </c>
+      <c r="AK2281">
+        <v>59448.21</v>
+      </c>
+      <c r="AL2281">
+        <v>59448.21</v>
+      </c>
+      <c r="AM2281">
+        <v>59467.37</v>
+      </c>
+      <c r="AN2281">
+        <v>59443.95</v>
+      </c>
+      <c r="AO2281">
+        <v>59443.95</v>
       </c>
     </row>
   </sheetData>

--- a/scripts/coinbase_close.xlsx
+++ b/scripts/coinbase_close.xlsx
@@ -437,7 +437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T1020"/>
+  <dimension ref="A1:T1023"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -45017,61 +45017,247 @@
         <v>44485</v>
       </c>
       <c r="B1020">
-        <v>60644.61</v>
+        <v>60877.42</v>
       </c>
       <c r="C1020">
-        <v>3868.99</v>
+        <v>3829.66</v>
       </c>
       <c r="D1020">
-        <v>2.1927</v>
+        <v>2.1784</v>
       </c>
       <c r="E1020">
-        <v>27.1525</v>
+        <v>27.0695</v>
       </c>
       <c r="F1020">
-        <v>186.98</v>
+        <v>186.05</v>
       </c>
       <c r="G1020">
-        <v>27.86107</v>
+        <v>27.22954</v>
       </c>
       <c r="H1020">
-        <v>0.407188</v>
+        <v>0.396764</v>
       </c>
       <c r="I1020">
-        <v>6.8863</v>
+        <v>6.9105</v>
       </c>
       <c r="J1020">
-        <v>33.539</v>
+        <v>33.121</v>
       </c>
       <c r="K1020">
-        <v>1.5154</v>
+        <v>1.5073</v>
       </c>
       <c r="L1020">
-        <v>60602.81</v>
+        <v>60861.35</v>
       </c>
       <c r="M1020">
-        <v>636.83</v>
+        <v>625.36</v>
       </c>
       <c r="N1020">
-        <v>1.8146</v>
+        <v>1.798</v>
       </c>
       <c r="O1020">
-        <v>66.6382</v>
+        <v>66.49939999999999</v>
       </c>
       <c r="P1020">
-        <v>54.991</v>
+        <v>54.129</v>
       </c>
       <c r="Q1020">
-        <v>0.999981</v>
+        <v>0.999864</v>
       </c>
       <c r="R1020">
-        <v>4.62</v>
+        <v>4.569</v>
       </c>
       <c r="S1020">
-        <v>192.726</v>
+        <v>190.016</v>
       </c>
       <c r="T1020">
-        <v>126.31</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:20">
+      <c r="A1021" s="2">
+        <v>44486</v>
+      </c>
+      <c r="B1021">
+        <v>61527.11</v>
+      </c>
+      <c r="C1021">
+        <v>3847.18</v>
+      </c>
+      <c r="D1021">
+        <v>2.1589</v>
+      </c>
+      <c r="E1021">
+        <v>25.9206</v>
+      </c>
+      <c r="F1021">
+        <v>183.73</v>
+      </c>
+      <c r="G1021">
+        <v>26.53806</v>
+      </c>
+      <c r="H1021">
+        <v>0.383525</v>
+      </c>
+      <c r="I1021">
+        <v>6.6281</v>
+      </c>
+      <c r="J1021">
+        <v>32.433</v>
+      </c>
+      <c r="K1021">
+        <v>1.4599</v>
+      </c>
+      <c r="L1021">
+        <v>61674.54</v>
+      </c>
+      <c r="M1021">
+        <v>612.41</v>
+      </c>
+      <c r="N1021">
+        <v>1.7684</v>
+      </c>
+      <c r="O1021">
+        <v>63.8848</v>
+      </c>
+      <c r="P1021">
+        <v>53.083</v>
+      </c>
+      <c r="Q1021">
+        <v>1.00014</v>
+      </c>
+      <c r="R1021">
+        <v>4.412</v>
+      </c>
+      <c r="S1021">
+        <v>186.194</v>
+      </c>
+      <c r="T1021">
+        <v>137.91</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:20">
+      <c r="A1022" s="2">
+        <v>44487</v>
+      </c>
+      <c r="B1022">
+        <v>62042.41</v>
+      </c>
+      <c r="C1022">
+        <v>3745.48</v>
+      </c>
+      <c r="D1022">
+        <v>2.1283</v>
+      </c>
+      <c r="E1022">
+        <v>25.6672</v>
+      </c>
+      <c r="F1022">
+        <v>185.63</v>
+      </c>
+      <c r="G1022">
+        <v>25.70439</v>
+      </c>
+      <c r="H1022">
+        <v>0.379591</v>
+      </c>
+      <c r="I1022">
+        <v>6.5483</v>
+      </c>
+      <c r="J1022">
+        <v>31.876</v>
+      </c>
+      <c r="K1022">
+        <v>1.4825</v>
+      </c>
+      <c r="L1022">
+        <v>61923.16</v>
+      </c>
+      <c r="M1022">
+        <v>611.26</v>
+      </c>
+      <c r="N1022">
+        <v>1.7372</v>
+      </c>
+      <c r="O1022">
+        <v>63.4931</v>
+      </c>
+      <c r="P1022">
+        <v>52.425</v>
+      </c>
+      <c r="Q1022">
+        <v>0.9996400000000001</v>
+      </c>
+      <c r="R1022">
+        <v>4.42</v>
+      </c>
+      <c r="S1022">
+        <v>186.833</v>
+      </c>
+      <c r="T1022">
+        <v>140.79</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:20">
+      <c r="A1023" s="2">
+        <v>44488</v>
+      </c>
+      <c r="B1023">
+        <v>63576.23</v>
+      </c>
+      <c r="C1023">
+        <v>3812.14</v>
+      </c>
+      <c r="D1023">
+        <v>2.1066</v>
+      </c>
+      <c r="E1023">
+        <v>25.5031</v>
+      </c>
+      <c r="F1023">
+        <v>186.3</v>
+      </c>
+      <c r="G1023">
+        <v>25.69142</v>
+      </c>
+      <c r="H1023">
+        <v>0.370768</v>
+      </c>
+      <c r="I1023">
+        <v>6.7344</v>
+      </c>
+      <c r="J1023">
+        <v>33.795</v>
+      </c>
+      <c r="K1023">
+        <v>1.4687</v>
+      </c>
+      <c r="L1023">
+        <v>63571.71</v>
+      </c>
+      <c r="M1023">
+        <v>610.09</v>
+      </c>
+      <c r="N1023">
+        <v>1.7033</v>
+      </c>
+      <c r="O1023">
+        <v>62.9623</v>
+      </c>
+      <c r="P1023">
+        <v>52.34</v>
+      </c>
+      <c r="Q1023">
+        <v>0.9997109999999999</v>
+      </c>
+      <c r="R1023">
+        <v>4.416</v>
+      </c>
+      <c r="S1023">
+        <v>191.42</v>
+      </c>
+      <c r="T1023">
+        <v>141.75</v>
       </c>
     </row>
   </sheetData>
